--- a/biology/Zoologie/Cechenena_subangustata/Cechenena_subangustata.xlsx
+++ b/biology/Zoologie/Cechenena_subangustata/Cechenena_subangustata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cechenena subangustata est une espèce de lépidoptères de la famille des Sphingidae, sous-famille des Macroglossinae, tribu des Macroglossini, sous-tribu des Choerocampina et du genre Cechenena.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'espèce ressemble beaucoup à Cechenena lineosa, mais elle est plus grande et l’aile antérieure est complètement verte. De plus, la face ventrale des ailes est plus jaunâtre.
 			Avers du mâle (coll.MHNT)
@@ -546,10 +560,12 @@
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Répartition
-L'espèce est connue au Népal, au nord-est de l'Inde, en Thaïlande, dans le sud-ouest de la Chine, à Taiwan, en Malaisie Péninsulaire et Sarawak),  en Indonésie (Sumatra, Java, Kalimantan)[1].</t>
+L'espèce est connue au Népal, au nord-est de l'Inde, en Thaïlande, dans le sud-ouest de la Chine, à Taiwan, en Malaisie Péninsulaire et Sarawak),  en Indonésie (Sumatra, Java, Kalimantan).</t>
         </is>
       </c>
     </row>
@@ -577,9 +593,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Cechenena subangustata a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1920[2].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Cechenena subangustata a été décrite par l'entomologiste britannique Lionel Walter Rothschild en 1920.</t>
         </is>
       </c>
     </row>
